--- a/src/main/resources/static/files/20240320_ETC_5_EXCEL.xlsx
+++ b/src/main/resources/static/files/20240320_ETC_5_EXCEL.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LKBT\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6979E8C5-B338-4342-92E0-A8D54CBCF275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,36 +135,6 @@
   </si>
   <si>
     <t>농가명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>성별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-암: 1
-수: 2
-거세: 3
-새끼: 4</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -234,11 +198,41 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>성별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+암: 1
+수: 2
+거세: 3
+새끼: 7</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,17 +650,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -689,7 +685,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -701,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>2</v>
@@ -710,13 +706,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>4</v>
@@ -837,7 +833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
